--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>99.9630591503899</v>
+        <v>1.459193</v>
       </c>
       <c r="H2">
-        <v>99.9630591503899</v>
+        <v>4.377579000000001</v>
       </c>
       <c r="I2">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="J2">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N2">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O2">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P2">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q2">
-        <v>1284.153106452684</v>
+        <v>19.11620702266433</v>
       </c>
       <c r="R2">
-        <v>1284.153106452684</v>
+        <v>172.045863203979</v>
       </c>
       <c r="S2">
-        <v>0.06396688390980362</v>
+        <v>0.0008954687873731179</v>
       </c>
       <c r="T2">
-        <v>0.06396688390980362</v>
+        <v>0.0008954687873731176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>99.9630591503899</v>
+        <v>1.459193</v>
       </c>
       <c r="H3">
-        <v>99.9630591503899</v>
+        <v>4.377579000000001</v>
       </c>
       <c r="I3">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="J3">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N3">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O3">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P3">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q3">
-        <v>4107.1911513572</v>
+        <v>60.07999202913635</v>
       </c>
       <c r="R3">
-        <v>4107.1911513572</v>
+        <v>540.7199282622272</v>
       </c>
       <c r="S3">
-        <v>0.2045894825578722</v>
+        <v>0.002814353158235412</v>
       </c>
       <c r="T3">
-        <v>0.2045894825578722</v>
+        <v>0.00281435315823541</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>99.9630591503899</v>
+        <v>1.459193</v>
       </c>
       <c r="H4">
-        <v>99.9630591503899</v>
+        <v>4.377579000000001</v>
       </c>
       <c r="I4">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="J4">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N4">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O4">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P4">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q4">
-        <v>6349.556733669919</v>
+        <v>92.99649544780334</v>
       </c>
       <c r="R4">
-        <v>6349.556733669919</v>
+        <v>836.9684590302301</v>
       </c>
       <c r="S4">
-        <v>0.3162873308645779</v>
+        <v>0.004356275222896575</v>
       </c>
       <c r="T4">
-        <v>0.3162873308645779</v>
+        <v>0.004356275222896573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>99.9630591503899</v>
+        <v>1.459193</v>
       </c>
       <c r="H5">
-        <v>99.9630591503899</v>
+        <v>4.377579000000001</v>
       </c>
       <c r="I5">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="J5">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N5">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O5">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P5">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q5">
-        <v>6531.373726990176</v>
+        <v>96.84353716568204</v>
       </c>
       <c r="R5">
-        <v>6531.373726990176</v>
+        <v>871.5918344911382</v>
       </c>
       <c r="S5">
-        <v>0.3253440908771544</v>
+        <v>0.004536483868785287</v>
       </c>
       <c r="T5">
-        <v>0.3253440908771544</v>
+        <v>0.004536483868785285</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>99.9630591503899</v>
+        <v>1.459193</v>
       </c>
       <c r="H6">
-        <v>99.9630591503899</v>
+        <v>4.377579000000001</v>
       </c>
       <c r="I6">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="J6">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.2198069288072</v>
+        <v>14.48213333333333</v>
       </c>
       <c r="N6">
-        <v>13.2198069288072</v>
+        <v>43.4464</v>
       </c>
       <c r="O6">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976351</v>
       </c>
       <c r="P6">
-        <v>0.06744452651212984</v>
+        <v>0.07282744526976349</v>
       </c>
       <c r="Q6">
-        <v>1321.492341981088</v>
+        <v>21.13222758506667</v>
       </c>
       <c r="R6">
-        <v>1321.492341981088</v>
+        <v>190.1900482656</v>
       </c>
       <c r="S6">
-        <v>0.06582684479166774</v>
+        <v>0.0009899061140976784</v>
       </c>
       <c r="T6">
-        <v>0.06582684479166774</v>
+        <v>0.000989906114097678</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.45657245187493</v>
+        <v>103.0385286666667</v>
       </c>
       <c r="H7">
-        <v>2.45657245187493</v>
+        <v>309.115586</v>
       </c>
       <c r="I7">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857745</v>
       </c>
       <c r="J7">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857743</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.8462765882418</v>
+        <v>13.10053366666667</v>
       </c>
       <c r="N7">
-        <v>12.8462765882418</v>
+        <v>39.301601</v>
       </c>
       <c r="O7">
-        <v>0.06553885745863927</v>
+        <v>0.0658796861383586</v>
       </c>
       <c r="P7">
-        <v>0.06553885745863927</v>
+        <v>0.06587968613835858</v>
       </c>
       <c r="Q7">
-        <v>31.55780917584067</v>
+        <v>1349.859713761465</v>
       </c>
       <c r="R7">
-        <v>31.55780917584067</v>
+        <v>12148.73742385319</v>
       </c>
       <c r="S7">
-        <v>0.001571973548835639</v>
+        <v>0.06323206479050422</v>
       </c>
       <c r="T7">
-        <v>0.001571973548835639</v>
+        <v>0.06323206479050419</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.45657245187493</v>
+        <v>103.0385286666667</v>
       </c>
       <c r="H8">
-        <v>2.45657245187493</v>
+        <v>309.115586</v>
       </c>
       <c r="I8">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857745</v>
       </c>
       <c r="J8">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857743</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.0870894334888</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N8">
-        <v>41.0870894334888</v>
+        <v>123.520313</v>
       </c>
       <c r="O8">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="P8">
-        <v>0.2096172287179701</v>
+        <v>0.2070521109852959</v>
       </c>
       <c r="Q8">
-        <v>100.9334120300301</v>
+        <v>4242.450437322047</v>
       </c>
       <c r="R8">
-        <v>100.9334120300301</v>
+        <v>38182.05393589842</v>
       </c>
       <c r="S8">
-        <v>0.005027746160097932</v>
+        <v>0.1987309482521937</v>
       </c>
       <c r="T8">
-        <v>0.005027746160097932</v>
+        <v>0.1987309482521936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.45657245187493</v>
+        <v>103.0385286666667</v>
       </c>
       <c r="H9">
-        <v>2.45657245187493</v>
+        <v>309.115586</v>
       </c>
       <c r="I9">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857745</v>
       </c>
       <c r="J9">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857743</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.5190318067127</v>
+        <v>63.73145666666667</v>
       </c>
       <c r="N9">
-        <v>63.5190318067127</v>
+        <v>191.19437</v>
       </c>
       <c r="O9">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896037</v>
       </c>
       <c r="P9">
-        <v>0.3240600296043198</v>
+        <v>0.3204913989896036</v>
       </c>
       <c r="Q9">
-        <v>156.0391037061379</v>
+        <v>6566.795524716757</v>
       </c>
       <c r="R9">
-        <v>156.0391037061379</v>
+        <v>59101.15972245082</v>
       </c>
       <c r="S9">
-        <v>0.007772698739741829</v>
+        <v>0.307611254600535</v>
       </c>
       <c r="T9">
-        <v>0.007772698739741829</v>
+        <v>0.3076112546005348</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.45657245187493</v>
+        <v>103.0385286666667</v>
       </c>
       <c r="H10">
-        <v>2.45657245187493</v>
+        <v>309.115586</v>
       </c>
       <c r="I10">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857745</v>
       </c>
       <c r="J10">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857743</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.33787363553991</v>
+        <v>66.36787400000001</v>
       </c>
       <c r="N10">
-        <v>65.33787363553991</v>
+        <v>199.103622</v>
       </c>
       <c r="O10">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169783</v>
       </c>
       <c r="P10">
-        <v>0.333339357706941</v>
+        <v>0.3337493586169782</v>
       </c>
       <c r="Q10">
-        <v>160.5072204371526</v>
+        <v>6838.448087694723</v>
       </c>
       <c r="R10">
-        <v>160.5072204371526</v>
+        <v>61546.0327892525</v>
       </c>
       <c r="S10">
-        <v>0.007995266829786629</v>
+        <v>0.3203363935817288</v>
       </c>
       <c r="T10">
-        <v>0.007995266829786629</v>
+        <v>0.3203363935817287</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>103.0385286666667</v>
+      </c>
+      <c r="H11">
+        <v>309.115586</v>
+      </c>
+      <c r="I11">
+        <v>0.9598112634857745</v>
+      </c>
+      <c r="J11">
+        <v>0.9598112634857743</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>14.48213333333333</v>
+      </c>
+      <c r="N11">
+        <v>43.4464</v>
+      </c>
+      <c r="O11">
+        <v>0.07282744526976351</v>
+      </c>
+      <c r="P11">
+        <v>0.07282744526976349</v>
+      </c>
+      <c r="Q11">
+        <v>1492.217710621155</v>
+      </c>
+      <c r="R11">
+        <v>13429.9593955904</v>
+      </c>
+      <c r="S11">
+        <v>0.06990060226081281</v>
+      </c>
+      <c r="T11">
+        <v>0.06990060226081278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.855184666666666</v>
+      </c>
+      <c r="H12">
+        <v>8.565553999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="J12">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>13.10053366666667</v>
+      </c>
+      <c r="N12">
+        <v>39.301601</v>
+      </c>
+      <c r="O12">
+        <v>0.0658796861383586</v>
+      </c>
+      <c r="P12">
+        <v>0.06587968613835858</v>
+      </c>
+      <c r="Q12">
+        <v>37.4044428502171</v>
+      </c>
+      <c r="R12">
+        <v>336.6399856519539</v>
+      </c>
+      <c r="S12">
+        <v>0.001752152560481252</v>
+      </c>
+      <c r="T12">
+        <v>0.001752152560481251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.45657245187493</v>
-      </c>
-      <c r="H11">
-        <v>2.45657245187493</v>
-      </c>
-      <c r="I11">
-        <v>0.02398536699892413</v>
-      </c>
-      <c r="J11">
-        <v>0.02398536699892413</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>13.2198069288072</v>
-      </c>
-      <c r="N11">
-        <v>13.2198069288072</v>
-      </c>
-      <c r="O11">
-        <v>0.06744452651212984</v>
-      </c>
-      <c r="P11">
-        <v>0.06744452651212984</v>
-      </c>
-      <c r="Q11">
-        <v>32.47541352041309</v>
-      </c>
-      <c r="R11">
-        <v>32.47541352041309</v>
-      </c>
-      <c r="S11">
-        <v>0.001617681720462103</v>
-      </c>
-      <c r="T11">
-        <v>0.001617681720462103</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.855184666666666</v>
+      </c>
+      <c r="H13">
+        <v>8.565553999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="J13">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>41.17343766666667</v>
+      </c>
+      <c r="N13">
+        <v>123.520313</v>
+      </c>
+      <c r="O13">
+        <v>0.2070521109852959</v>
+      </c>
+      <c r="P13">
+        <v>0.2070521109852959</v>
+      </c>
+      <c r="Q13">
+        <v>117.5577678998224</v>
+      </c>
+      <c r="R13">
+        <v>1058.019911098402</v>
+      </c>
+      <c r="S13">
+        <v>0.005506809574866828</v>
+      </c>
+      <c r="T13">
+        <v>0.005506809574866826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.855184666666666</v>
+      </c>
+      <c r="H14">
+        <v>8.565553999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="J14">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>63.73145666666667</v>
+      </c>
+      <c r="N14">
+        <v>191.19437</v>
+      </c>
+      <c r="O14">
+        <v>0.3204913989896037</v>
+      </c>
+      <c r="P14">
+        <v>0.3204913989896036</v>
+      </c>
+      <c r="Q14">
+        <v>181.9650778589977</v>
+      </c>
+      <c r="R14">
+        <v>1637.68570073098</v>
+      </c>
+      <c r="S14">
+        <v>0.008523869166172133</v>
+      </c>
+      <c r="T14">
+        <v>0.00852386916617213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.855184666666666</v>
+      </c>
+      <c r="H15">
+        <v>8.565553999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="J15">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>66.36787400000001</v>
+      </c>
+      <c r="N15">
+        <v>199.103622</v>
+      </c>
+      <c r="O15">
+        <v>0.3337493586169783</v>
+      </c>
+      <c r="P15">
+        <v>0.3337493586169782</v>
+      </c>
+      <c r="Q15">
+        <v>189.4925362040653</v>
+      </c>
+      <c r="R15">
+        <v>1705.432825836588</v>
+      </c>
+      <c r="S15">
+        <v>0.008876481166464221</v>
+      </c>
+      <c r="T15">
+        <v>0.008876481166464218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.855184666666666</v>
+      </c>
+      <c r="H16">
+        <v>8.565553999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="J16">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.48213333333333</v>
+      </c>
+      <c r="N16">
+        <v>43.4464</v>
+      </c>
+      <c r="O16">
+        <v>0.07282744526976351</v>
+      </c>
+      <c r="P16">
+        <v>0.07282744526976349</v>
+      </c>
+      <c r="Q16">
+        <v>41.34916503395554</v>
+      </c>
+      <c r="R16">
+        <v>372.1424853055999</v>
+      </c>
+      <c r="S16">
+        <v>0.001936936894853028</v>
+      </c>
+      <c r="T16">
+        <v>0.001936936894853027</v>
       </c>
     </row>
   </sheetData>
